--- a/データベース項目一覧.xlsx
+++ b/データベース項目一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\book-management-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6BA417-9B93-4A3F-86C9-E1CFACB6D4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE38FED-FC86-4D08-B8FA-86C4511A6DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="10320" windowWidth="26265" windowHeight="21345" xr2:uid="{B42E3D43-EBBB-4F5B-84D0-1AF6B0EB972B}"/>
+    <workbookView xWindow="26460" yWindow="8415" windowWidth="26265" windowHeight="21345" xr2:uid="{B42E3D43-EBBB-4F5B-84D0-1AF6B0EB972B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>本一覧</t>
     <rPh sb="0" eb="1">
@@ -223,16 +223,6 @@
     <t>購入日</t>
     <rPh sb="0" eb="3">
       <t>コウニュウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>優先度表</t>
-    <rPh sb="0" eb="3">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -640,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B99A7A-88C8-48F7-860F-7D9102556646}">
-  <dimension ref="A2:B49"/>
+  <dimension ref="A2:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,155 +730,135 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>35</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
